--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T15:41:03+00:00</t>
+    <t>2021-10-21T18:48:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,7 +76,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>001</t>
   </si>
   <si>
     <t>Description</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T18:48:22+00:00</t>
+    <t>2021-10-27T18:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,7 +76,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>001</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T18:21:42+00:00</t>
+    <t>2021-11-17T17:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T17:36:43+00:00</t>
+    <t>2021-12-17T22:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T22:04:03+00:00</t>
+    <t>2021-12-20T17:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T17:22:47+00:00</t>
+    <t>2021-12-20T17:36:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T17:36:36+00:00</t>
+    <t>2022-01-20T17:52:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T17:52:40+00:00</t>
+    <t>2022-01-20T19:02:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -139,67 +139,61 @@
     <t>http://snomed.info/sct</t>
   </si>
   <si>
+    <t>41040004</t>
+  </si>
+  <si>
+    <t>Complete trisomy 21 syndrome (disorder)</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>733194007</t>
+  </si>
+  <si>
+    <t>Dementia co-occurrent and due to Down syndrome (disorder)</t>
+  </si>
+  <si>
+    <t>840505007</t>
+  </si>
+  <si>
+    <t>Down syndrome co-occurrent with leukemoid reaction associated transient neonatal pustulosis (disorder)</t>
+  </si>
+  <si>
+    <t>724644005</t>
+  </si>
+  <si>
+    <t>Myeloid leukemia co-occurrent with Down syndrome (disorder)</t>
+  </si>
+  <si>
+    <t>254264002</t>
+  </si>
+  <si>
+    <t>Partial trisomy 21 in Down's syndrome (disorder)</t>
+  </si>
+  <si>
     <t>709469005</t>
   </si>
   <si>
-    <t>Periodontitis co-occurrent with Down syndrome</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>840505007</t>
-  </si>
-  <si>
-    <t>Down syndrome co-occurrent with leukaemoid reaction associated transient neonatal pustulosis</t>
-  </si>
-  <si>
-    <t>724644005</t>
-  </si>
-  <si>
-    <t>Myeloid leukaemia co-occurrent with Down syndrome</t>
+    <t>Periodontitis co-occurrent with Down syndrome (disorder)</t>
   </si>
   <si>
     <t>724643004</t>
   </si>
   <si>
-    <t>Transient abnormal myelopoiesis co-occurrent with Down syndrome</t>
+    <t>Transient abnormal myelopoiesis co-occurrent with Down syndrome (disorder)</t>
+  </si>
+  <si>
+    <t>371045000</t>
+  </si>
+  <si>
+    <t>Translocation Down syndrome (disorder)</t>
   </si>
   <si>
     <t>205615000</t>
   </si>
   <si>
-    <t>Trisomy 21- meiotic nondisjunction</t>
-  </si>
-  <si>
-    <t>733194007</t>
-  </si>
-  <si>
-    <t>Dementia co-occurrent and due to Down syndrome</t>
-  </si>
-  <si>
-    <t>125501000119105</t>
-  </si>
-  <si>
-    <t>Fetal trisomy 21, Down syndrome</t>
-  </si>
-  <si>
-    <t>41040004</t>
-  </si>
-  <si>
-    <t>Complete trisomy 21 syndrome</t>
-  </si>
-  <si>
-    <t>254264002</t>
-  </si>
-  <si>
-    <t>Partial trisomy 21 in Down's syndrome (disorder)</t>
-  </si>
-  <si>
-    <t>371045000</t>
-  </si>
-  <si>
-    <t>Translocation Down syndrome (disorder)</t>
+    <t>Trisomy 21- meiotic nondisjunction (disorder)</t>
   </si>
 </sst>
 </file>
@@ -509,7 +503,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -727,27 +721,6 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T19:02:29+00:00</t>
+    <t>2022-01-24T16:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T16:21:32+00:00</t>
+    <t>2022-01-29T01:27:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-29T01:27:19+00:00</t>
+    <t>2022-02-02T21:23:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T21:23:34+00:00</t>
+    <t>2022-02-04T01:37:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-04T01:37:16+00:00</t>
+    <t>2022-02-15T15:39:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-15T15:39:42+00:00</t>
+    <t>2022-02-16T22:34:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T22:34:03+00:00</t>
+    <t>2022-02-17T21:48:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T21:48:19+00:00</t>
+    <t>2022-02-18T00:07:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-18T00:07:46+00:00</t>
+    <t>2022-02-23T18:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T18:16:24+00:00</t>
+    <t>2022-02-28T19:02:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-28T19:02:13+00:00</t>
+    <t>2022-03-02T20:52:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T20:52:19+00:00</t>
+    <t>2022-03-16T16:50:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T16:50:23+00:00</t>
+    <t>2022-03-16T20:44:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-downs-syndrome-snomed.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T20:44:25+00:00</t>
+    <t>2022-03-25T21:34:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
